--- a/src/excelexporter/template/sample/示例.xlsx
+++ b/src/excelexporter/template/sample/示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Projects\Github\GDExcelExporter\src\excelexporter\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Projects\Github\GDExcelExporter\Setting\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9465D53-6EF5-43E1-B9EF-89A22F1BB695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348C7656-EF71-4AC6-9EA5-2CB954F64303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="375" windowWidth="38370" windowHeight="20505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="57600" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>int</t>
   </si>
@@ -129,13 +129,29 @@
   <si>
     <t>你成功配置好了Godot导表项目。</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>function#(a,b=null,c=null)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定参数函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +195,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -206,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -214,6 +238,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,10 +540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,9 +552,10 @@
     <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="28.875" customWidth="1"/>
     <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +586,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,8 +621,11 @@
       <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -624,8 +656,11 @@
       <c r="J3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -656,8 +691,11 @@
       <c r="J4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -665,7 +703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -691,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -705,7 +743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -716,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>

--- a/src/excelexporter/template/sample/示例.xlsx
+++ b/src/excelexporter/template/sample/示例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Projects\Github\GDExcelExporter\Setting\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Projects\Github\GDExcelExporter\src\excelexporter\template\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348C7656-EF71-4AC6-9EA5-2CB954F64303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD940608-6262-4900-BB39-D4665F9470C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="57600" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="5055" windowWidth="37275" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>int</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>print(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*忽略字段（不会导出）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这段话你在表里看不到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +215,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +237,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -227,10 +252,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -239,9 +267,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 3" xfId="1" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,10 +570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,9 +583,10 @@
     <col min="9" max="9" width="28.875" customWidth="1"/>
     <col min="10" max="10" width="28.75" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,8 +620,11 @@
       <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -624,43 +658,49 @@
       <c r="K2" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -694,8 +734,11 @@
       <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -703,7 +746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -729,7 +772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -743,7 +786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -753,8 +796,9 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>

--- a/src/excelexporter/template/sample/示例.xlsx
+++ b/src/excelexporter/template/sample/示例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Projects\Github\GDExcelExporter\src\excelexporter\template\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\src\excelexporter\template\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD940608-6262-4900-BB39-D4665F9470C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725D97F-1E75-4123-9C30-393CAB3EFE8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8985" yWindow="5055" windowWidth="37275" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,91 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>邓煊</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{01B87D48-64A7-496F-B8F7-A05AFEF820E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段类型
+这个类型决定了用哪个类型转换器解析</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5E5120B2-AC25-469A-9C11-117E88AFFB5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段注释</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AE7F38A8-FA82-4EF8-AEC3-9DE6F3B018D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段名</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>int</t>
   </si>
@@ -131,10 +214,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>function#(a,b=null,c=null)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>固定参数函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,6 +235,26 @@
   </si>
   <si>
     <t>*string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function(a,b=null,c=null)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这段话需要翻译</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,14 +316,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,7 +359,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -252,13 +377,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -267,11 +395,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 3" xfId="1" builtinId="37"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,47 +714,51 @@
     <col min="10" max="10" width="28.75" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="12" width="64.875" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -656,17 +790,20 @@
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -694,13 +831,14 @@
         <v>8</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -732,13 +870,16 @@
         <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -746,7 +887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -772,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -786,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -798,7 +939,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -806,6 +947,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/excelexporter/template/sample/示例.xlsx
+++ b/src/excelexporter/template/sample/示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\src\excelexporter\template\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725D97F-1E75-4123-9C30-393CAB3EFE8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84324DEE-7A54-4334-B714-5007EA47FBE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8985" yWindow="5055" windowWidth="37275" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>int</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>这段话需要翻译</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr_string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未命名字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个字段没命名，不导出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,9 +727,10 @@
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="12" width="64.875" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -757,8 +770,11 @@
       <c r="M1" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -798,8 +814,11 @@
       <c r="M2" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -836,9 +855,12 @@
       <c r="L3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -878,8 +900,11 @@
       <c r="M4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -887,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -913,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -927,7 +952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -939,7 +964,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>

--- a/src/excelexporter/template/sample/示例.xlsx
+++ b/src/excelexporter/template/sample/示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\src\excelexporter\template\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Projects\Github\GDExcelExporter\src\excelexporter\template\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84324DEE-7A54-4334-B714-5007EA47FBE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75762B-CC46-4900-843A-249EF48AE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="5055" windowWidth="37275" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22185" yWindow="0" windowWidth="37860" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>int</t>
   </si>
@@ -267,6 +267,30 @@
   </si>
   <si>
     <t>这个字段没命名，不导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr_array_str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr_dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#array_str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译字符数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译字典</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -728,9 +752,11 @@
     <col min="12" max="12" width="64.875" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -773,8 +799,14 @@
       <c r="N1" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="O1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -817,8 +849,14 @@
       <c r="N2" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -859,8 +897,14 @@
         <v>45</v>
       </c>
       <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -903,8 +947,14 @@
       <c r="N4" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -912,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -937,8 +987,14 @@
       <c r="I6" t="s">
         <v>23</v>
       </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -952,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -964,7 +1020,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>

--- a/src/excelexporter/template/sample/示例.xlsx
+++ b/src/excelexporter/template/sample/示例.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Projects\Github\GDExcelExporter\src\excelexporter\template\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\src\excelexporter\template\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75762B-CC46-4900-843A-249EF48AE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DA4A7-8F23-495E-A043-ACBAB49CD64A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22185" yWindow="0" windowWidth="37860" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22185" yWindow="0" windowWidth="37860" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
     <sheet name="示例-demo" sheetId="1" r:id="rId2"/>
+    <sheet name="示例-demo2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -103,8 +104,91 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>邓煊</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E9B1E181-6964-4510-A796-79F9BC20E620}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段类型
+这个类型决定了用哪个类型转换器解析</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{D941470B-6D7F-405C-B3B3-8A4345567D52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段注释</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{5CE82A6E-8DC0-4987-834E-5858EA6479FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邓煊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段名</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>int</t>
   </si>
@@ -738,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1031,4 +1115,303 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5EEF8-000D-4B92-AD66-1E2D5AFC6ECF}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="64.875" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="28.875" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="64.875" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.01</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4.5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3.01</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/excelexporter/template/sample/示例.xlsx
+++ b/src/excelexporter/template/sample/示例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\src\excelexporter\template\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\github\GDExcelExporter\src\excelexporter\template\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DA4A7-8F23-495E-A043-ACBAB49CD64A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4ACBCC-151A-4260-A7FF-0C0A5BF052C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22185" yWindow="0" windowWidth="37860" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
   <si>
     <t>int</t>
   </si>
@@ -376,6 +376,10 @@
   <si>
     <t>翻译字典</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1121,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5EEF8-000D-4B92-AD66-1E2D5AFC6ECF}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:J19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
